--- a/simulation_data/two_step_algorithm/2s_error_level_12_percent_water_60.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_12_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>97.98343654663645</v>
+        <v>94.66955259294772</v>
       </c>
       <c r="D2" t="n">
-        <v>19.95174701536059</v>
+        <v>17.4223190245758</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>94.87197825468792</v>
+        <v>94.05658757052825</v>
       </c>
       <c r="D3" t="n">
-        <v>18.85266206372748</v>
+        <v>17.07720745697403</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>93.36953780239912</v>
+        <v>90.50569856072488</v>
       </c>
       <c r="D4" t="n">
-        <v>21.81987191425801</v>
+        <v>17.33031357895923</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.63338198741089</v>
+        <v>88.84105136975455</v>
       </c>
       <c r="D5" t="n">
-        <v>19.88156807475821</v>
+        <v>17.11855112090826</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>91.59776342236266</v>
+        <v>87.76078189884576</v>
       </c>
       <c r="D6" t="n">
-        <v>19.90277307267326</v>
+        <v>16.59297843745557</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.19037083659714</v>
+        <v>86.92359390839141</v>
       </c>
       <c r="D7" t="n">
-        <v>20.60952891668542</v>
+        <v>16.86601578515432</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>89.48876061953955</v>
+        <v>84.41155919400745</v>
       </c>
       <c r="D8" t="n">
-        <v>20.72044812606827</v>
+        <v>18.79073833175363</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.43620986857138</v>
+        <v>86.08941550340636</v>
       </c>
       <c r="D9" t="n">
-        <v>19.87211858529886</v>
+        <v>19.59316740551198</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.57204453564647</v>
+        <v>84.47658651063078</v>
       </c>
       <c r="D10" t="n">
-        <v>19.6249388039286</v>
+        <v>18.00160190939832</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.18108569246837</v>
+        <v>82.44614710752491</v>
       </c>
       <c r="D11" t="n">
-        <v>21.50282328647444</v>
+        <v>17.70310604114443</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>84.10409065019977</v>
+        <v>83.3919390696649</v>
       </c>
       <c r="D12" t="n">
-        <v>19.73181981959157</v>
+        <v>18.13219162011123</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.12388555220687</v>
+        <v>83.77546683247762</v>
       </c>
       <c r="D13" t="n">
-        <v>18.3099117461128</v>
+        <v>16.73190623208135</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.38741209522755</v>
+        <v>79.80279696583059</v>
       </c>
       <c r="D14" t="n">
-        <v>18.56413626988781</v>
+        <v>18.54408283184119</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>80.85216423312093</v>
+        <v>77.37559295329612</v>
       </c>
       <c r="D15" t="n">
-        <v>19.19357026372977</v>
+        <v>19.54330728645244</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.45945443813403</v>
+        <v>75.82130210774922</v>
       </c>
       <c r="D16" t="n">
-        <v>20.15633664592954</v>
+        <v>18.16715056885214</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.84337908809384</v>
+        <v>76.9231856721868</v>
       </c>
       <c r="D17" t="n">
-        <v>15.50314643021806</v>
+        <v>18.42131132522871</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.28892687241569</v>
+        <v>76.54419986291057</v>
       </c>
       <c r="D18" t="n">
-        <v>16.45830516667296</v>
+        <v>21.07021056709008</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.48323175254932</v>
+        <v>76.76558274953578</v>
       </c>
       <c r="D19" t="n">
-        <v>18.15496128459256</v>
+        <v>20.36450630473443</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.71086504689563</v>
+        <v>77.18714494761853</v>
       </c>
       <c r="D20" t="n">
-        <v>17.93789344750274</v>
+        <v>14.98724728854311</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.04602743124917</v>
+        <v>73.43949925786485</v>
       </c>
       <c r="D21" t="n">
-        <v>20.74119401869794</v>
+        <v>16.56782088698342</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>75.298127704295</v>
+        <v>71.489173236768</v>
       </c>
       <c r="D22" t="n">
-        <v>19.97771781980918</v>
+        <v>17.61787151228727</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.00238526886577</v>
+        <v>70.09488081897877</v>
       </c>
       <c r="D23" t="n">
-        <v>20.33530210099182</v>
+        <v>17.06891371385788</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.13923439066578</v>
+        <v>67.23614856108372</v>
       </c>
       <c r="D24" t="n">
-        <v>19.10339906195737</v>
+        <v>17.66073191203281</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.56564225209789</v>
+        <v>69.37036555435597</v>
       </c>
       <c r="D25" t="n">
-        <v>21.03271084814771</v>
+        <v>18.65073324344504</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.70112548399244</v>
+        <v>66.80708044265198</v>
       </c>
       <c r="D26" t="n">
-        <v>19.90360156566344</v>
+        <v>19.96026502697804</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.16674049814189</v>
+        <v>64.11028828658195</v>
       </c>
       <c r="D27" t="n">
-        <v>18.90878356750672</v>
+        <v>19.18494854695077</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>67.49530037355149</v>
+        <v>67.45922141157935</v>
       </c>
       <c r="D28" t="n">
-        <v>18.82276485629787</v>
+        <v>15.96159846600801</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.47408616671669</v>
+        <v>64.2432349336147</v>
       </c>
       <c r="D29" t="n">
-        <v>20.2401877328002</v>
+        <v>18.23280026921227</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.18043254409788</v>
+        <v>63.44219500905401</v>
       </c>
       <c r="D30" t="n">
-        <v>18.39523598646463</v>
+        <v>16.66965731821106</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>59.99312296825393</v>
+        <v>63.73564242636444</v>
       </c>
       <c r="D31" t="n">
-        <v>17.31828474014284</v>
+        <v>17.61646695425161</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>62.4304668915122</v>
+        <v>60.51805150794861</v>
       </c>
       <c r="D32" t="n">
-        <v>18.83319798628777</v>
+        <v>19.34425630650848</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.57867145324928</v>
+        <v>61.04491212577841</v>
       </c>
       <c r="D33" t="n">
-        <v>18.00680147913625</v>
+        <v>18.16753001796216</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.52943556758338</v>
+        <v>55.31613013905507</v>
       </c>
       <c r="D34" t="n">
-        <v>17.99381693101816</v>
+        <v>20.17261707485536</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.66228824551081</v>
+        <v>55.73826516624387</v>
       </c>
       <c r="D35" t="n">
-        <v>19.48838127834976</v>
+        <v>17.41185863768655</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.48897900176333</v>
+        <v>57.62359280116733</v>
       </c>
       <c r="D36" t="n">
-        <v>20.61477157121737</v>
+        <v>18.35993752251735</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>57.54936240471638</v>
+        <v>54.02092057733447</v>
       </c>
       <c r="D37" t="n">
-        <v>18.67678979963254</v>
+        <v>18.30907764738247</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.62983485456688</v>
+        <v>55.08323009502578</v>
       </c>
       <c r="D38" t="n">
-        <v>18.50182703951794</v>
+        <v>17.20507825494676</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.84165609296354</v>
+        <v>53.42953095185788</v>
       </c>
       <c r="D39" t="n">
-        <v>18.44076359590504</v>
+        <v>15.94443222639471</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.98230413392002</v>
+        <v>50.29375380271186</v>
       </c>
       <c r="D40" t="n">
-        <v>17.17243365612413</v>
+        <v>19.69154944139464</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.72963699852269</v>
+        <v>51.58976588437008</v>
       </c>
       <c r="D41" t="n">
-        <v>17.66626912966741</v>
+        <v>19.24119216886809</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>53.23177754550273</v>
+        <v>54.75455350009819</v>
       </c>
       <c r="D42" t="n">
-        <v>16.64780564830338</v>
+        <v>18.15721364136508</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>47.35728308472257</v>
+        <v>46.6496454615785</v>
       </c>
       <c r="D43" t="n">
-        <v>19.15785084106308</v>
+        <v>16.84438449746595</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.76051912343551</v>
+        <v>46.95886089206251</v>
       </c>
       <c r="D44" t="n">
-        <v>17.52601870443631</v>
+        <v>20.15746499884926</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>45.9683027389707</v>
+        <v>43.26738619990347</v>
       </c>
       <c r="D45" t="n">
-        <v>20.18387016808901</v>
+        <v>16.11293818917653</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.71440938085914</v>
+        <v>45.63036580489509</v>
       </c>
       <c r="D46" t="n">
-        <v>18.32271294244078</v>
+        <v>14.6713086565928</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.38001842292433</v>
+        <v>44.56961593291372</v>
       </c>
       <c r="D47" t="n">
-        <v>16.62065032745531</v>
+        <v>18.25874913217291</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.77506572108668</v>
+        <v>47.91178192863154</v>
       </c>
       <c r="D48" t="n">
-        <v>20.46630957073573</v>
+        <v>18.23293145166874</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>45.57019511121669</v>
+        <v>45.80532849926421</v>
       </c>
       <c r="D49" t="n">
-        <v>16.78977261936545</v>
+        <v>18.34559791658134</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.45646477311545</v>
+        <v>42.32890660244623</v>
       </c>
       <c r="D50" t="n">
-        <v>21.0859226408247</v>
+        <v>18.41165548181107</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>43.33727350947675</v>
+        <v>39.77158877062619</v>
       </c>
       <c r="D51" t="n">
-        <v>17.76566854127821</v>
+        <v>19.40649143089374</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>35.82429160339425</v>
+        <v>38.622685958826</v>
       </c>
       <c r="D52" t="n">
-        <v>17.54550693640544</v>
+        <v>17.71906404892439</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.48032956146653</v>
+        <v>37.40260988666257</v>
       </c>
       <c r="D53" t="n">
-        <v>19.74976133075074</v>
+        <v>18.08914807058589</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.23131476641263</v>
+        <v>34.83650246251224</v>
       </c>
       <c r="D54" t="n">
-        <v>17.87932101777038</v>
+        <v>19.76583899720593</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.66898806378465</v>
+        <v>36.59271962997421</v>
       </c>
       <c r="D55" t="n">
-        <v>17.40644890432288</v>
+        <v>16.78602270219757</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>38.01361468369844</v>
+        <v>36.06192326763707</v>
       </c>
       <c r="D56" t="n">
-        <v>18.53736369798304</v>
+        <v>17.48217229780266</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.54679008844119</v>
+        <v>35.36302616263464</v>
       </c>
       <c r="D57" t="n">
-        <v>19.20055149971369</v>
+        <v>15.20475336559209</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>38.45917041342164</v>
+        <v>35.84310578344274</v>
       </c>
       <c r="D58" t="n">
-        <v>18.39310903255685</v>
+        <v>19.22158321219869</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.25611863182397</v>
+        <v>30.32107153077336</v>
       </c>
       <c r="D59" t="n">
-        <v>19.75556379064779</v>
+        <v>17.59002646570843</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>34.29719123971778</v>
+        <v>33.50444952615068</v>
       </c>
       <c r="D60" t="n">
-        <v>17.30350881817204</v>
+        <v>16.53027831907896</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>34.43379834716637</v>
+        <v>30.44950160252713</v>
       </c>
       <c r="D61" t="n">
-        <v>18.37452883028948</v>
+        <v>18.5150944134703</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.44679952122933</v>
+        <v>31.77198057714901</v>
       </c>
       <c r="D62" t="n">
-        <v>17.0550713520917</v>
+        <v>15.52558778762393</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>32.07783812081838</v>
+        <v>26.42631070378231</v>
       </c>
       <c r="D63" t="n">
-        <v>17.77463292427682</v>
+        <v>19.36210555080235</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>30.64496154412222</v>
+        <v>29.37131582368297</v>
       </c>
       <c r="D64" t="n">
-        <v>19.15883075609405</v>
+        <v>17.59560495587718</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.72916284377219</v>
+        <v>28.81129361435062</v>
       </c>
       <c r="D65" t="n">
-        <v>20.07857719586717</v>
+        <v>19.19549627184767</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>23.37572026446495</v>
+        <v>23.46017205150994</v>
       </c>
       <c r="D66" t="n">
-        <v>17.72819337300859</v>
+        <v>20.08769936333682</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.69182487076296</v>
+        <v>25.58288074814581</v>
       </c>
       <c r="D67" t="n">
-        <v>16.37214340050834</v>
+        <v>19.00298709016218</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.68598981066459</v>
+        <v>23.02296256890268</v>
       </c>
       <c r="D68" t="n">
-        <v>16.94727480231066</v>
+        <v>19.08588312980496</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.44717327383347</v>
+        <v>23.40596580958887</v>
       </c>
       <c r="D69" t="n">
-        <v>19.97701684396809</v>
+        <v>20.2458512635006</v>
       </c>
     </row>
   </sheetData>
